--- a/PycharmProjects-Public/Testes/datasets/Fat_teste.xlsx
+++ b/PycharmProjects-Public/Testes/datasets/Fat_teste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EAI\GIT\Projects\PycharmProjects\Testes\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTOS\GIT\PC-Home\PycharmProjects-Public\Testes\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,9 +230,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -269,7 +269,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -558,7 +558,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
       <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>

--- a/PycharmProjects-Public/Testes/datasets/Fat_teste.xlsx
+++ b/PycharmProjects-Public/Testes/datasets/Fat_teste.xlsx
@@ -558,8 +558,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5128,7 +5128,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>41933</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2160</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2160</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2160</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2160</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2160</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2160</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2161</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>41941</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>41941</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>41941</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>41941</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>41941</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>41941</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>41941</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>41941</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>41941</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>41941</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>41941</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>41941</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2163</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>41945</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>41948</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>41948</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>41948</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>41948</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>41948</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>41948</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>41948</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>41948</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>41948</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>41948</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>41948</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>41948</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>41948</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>41948</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>41948</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>41948</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>41948</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>41948</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>41950</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>41950</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>41950</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>41950</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>41950</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>41950</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>41950</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>41950</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>41950</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>41950</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>48</v>
       </c>
       <c r="G284" s="1">
-        <v>148.1</v>
+        <v>23148.1</v>
       </c>
       <c r="H284">
         <v>20190104</v>
@@ -13625,7 +13625,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>41963</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>41963</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>41963</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>41963</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>41963</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>41963</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>41963</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>41963</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>41963</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>41963</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>41963</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>41963</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>41963</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>41963</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>41963</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>41963</v>
       </c>
@@ -14292,7 +14292,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>41968</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>41969</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>41969</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>41969</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>41969</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>41969</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>41969</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>41970</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>41970</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>41970</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>41970</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>41970</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>41970</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>41970</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>41970</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>41970</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>41970</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>41970</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>41970</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>41970</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>41970</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>41970</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>41970</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>41970</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>41971</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>41971</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>41971</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>41971</v>
       </c>
@@ -15108,7 +15108,7 @@
   <autoFilter ref="A1:I501">
     <filterColumn colId="5">
       <filters>
-        <filter val="PR"/>
+        <filter val="RJ"/>
       </filters>
     </filterColumn>
   </autoFilter>
